--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Sno</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Pilot-POC</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -490,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -581,7 +584,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -601,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -621,7 +624,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -641,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,7 +664,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,7 +684,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -701,7 +704,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Sno</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Pilot-POC</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -494,7 +491,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F2" sqref="F2:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -584,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,7 +621,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,7 +641,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,7 +661,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,7 +681,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="75">
   <si>
     <t>Sno</t>
   </si>
@@ -57,21 +57,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>AML Transformation</t>
-  </si>
-  <si>
-    <t>amlTransformation</t>
-  </si>
-  <si>
-    <t>RBL Model</t>
-  </si>
-  <si>
-    <t>AML Model</t>
-  </si>
-  <si>
-    <t>AML Pipeline</t>
-  </si>
-  <si>
     <t>amlModel</t>
   </si>
   <si>
@@ -84,12 +69,6 @@
     <t>rblPipeline</t>
   </si>
   <si>
-    <t>RBL Transformation Scenario</t>
-  </si>
-  <si>
-    <t>rblTransformationScenario</t>
-  </si>
-  <si>
     <t>rblModel</t>
   </si>
   <si>
@@ -99,22 +78,169 @@
     <t>4</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Pilot-POC</t>
+  </si>
+  <si>
+    <t>amlTransformEncode</t>
+  </si>
+  <si>
+    <t>AML TransformationEncode</t>
+  </si>
+  <si>
+    <t>amlTransformJoin</t>
+  </si>
+  <si>
+    <t>AMLTransformJoin</t>
+  </si>
+  <si>
+    <t>amlFilterPredection1</t>
+  </si>
+  <si>
+    <t>amlFilterPredection2</t>
+  </si>
+  <si>
+    <t>amlFilterPredection3</t>
+  </si>
+  <si>
+    <t>amlFilterPredection4</t>
+  </si>
+  <si>
+    <t>amlFilterPredection5</t>
+  </si>
+  <si>
+    <t>AMLFilterPredection1</t>
+  </si>
+  <si>
+    <t>AMLFilterPredection2</t>
+  </si>
+  <si>
+    <t>AMLFilterPredection3</t>
+  </si>
+  <si>
+    <t>AMLFilterPredection4</t>
+  </si>
+  <si>
+    <t>AMLFilterPredection5</t>
+  </si>
+  <si>
+    <t>amlBalance_With_Fraction1</t>
+  </si>
+  <si>
+    <t>amlBalance_With_Fraction2</t>
+  </si>
+  <si>
+    <t>amlBalance_With_Fraction3</t>
+  </si>
+  <si>
+    <t>amlBalance_With_Fraction4</t>
+  </si>
+  <si>
+    <t>AMLBalance_With_Fraction1</t>
+  </si>
+  <si>
+    <t>AMLBalance_With_Fraction2</t>
+  </si>
+  <si>
+    <t>AMLBalance_With_Fraction3</t>
+  </si>
+  <si>
+    <t>AMLBalance_With_Fraction4</t>
+  </si>
+  <si>
+    <t>amlN_Union1</t>
+  </si>
+  <si>
+    <t>amlN_Union3</t>
+  </si>
+  <si>
+    <t>amlN_Union2</t>
+  </si>
+  <si>
+    <t>AMLN_Union1</t>
+  </si>
+  <si>
+    <t>AMLN_Union2</t>
+  </si>
+  <si>
+    <t>AMLN_Union3</t>
+  </si>
+  <si>
+    <t>amlTransformationProject</t>
+  </si>
+  <si>
+    <t>AMLTransformationProject</t>
+  </si>
+  <si>
+    <t>AMLModel</t>
+  </si>
+  <si>
+    <t>rblTransformationProject</t>
+  </si>
+  <si>
+    <t>RBLTransformationProject</t>
+  </si>
+  <si>
+    <t>rblTransformAggregate</t>
+  </si>
+  <si>
+    <t>RBLTransformAggregate</t>
+  </si>
+  <si>
+    <t>rblTransformSlide</t>
+  </si>
+  <si>
+    <t>RBLTransformSlide</t>
+  </si>
+  <si>
+    <t>rblTransformAggregate2</t>
+  </si>
+  <si>
+    <t>RBLTransformAggregate2</t>
+  </si>
+  <si>
+    <t>rblTransformationTranspose</t>
+  </si>
+  <si>
+    <t>RBLTransformationTranspose</t>
+  </si>
+  <si>
+    <t>rblTransformJoin</t>
+  </si>
+  <si>
+    <t>rblTransformJoin2</t>
+  </si>
+  <si>
+    <t>RBLTransformJoin2</t>
+  </si>
+  <si>
+    <t>RBLTransformJoin</t>
+  </si>
+  <si>
+    <t>RBLTransformSplit</t>
+  </si>
+  <si>
+    <t>rblTransformSplit</t>
+  </si>
+  <si>
+    <t>RBLModel</t>
+  </si>
+  <si>
+    <t>AMLPipeline</t>
+  </si>
+  <si>
+    <t>zipUtils</t>
+  </si>
+  <si>
+    <t>ZIPUtils</t>
+  </si>
+  <si>
+    <t>mailReport</t>
+  </si>
+  <si>
+    <t>MailReport</t>
   </si>
 </sst>
 </file>
@@ -488,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +626,7 @@
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -529,13 +655,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -549,13 +675,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -569,13 +695,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -589,16 +715,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
@@ -609,16 +735,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>12</v>
@@ -629,16 +755,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>12</v>
@@ -649,16 +775,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -669,16 +795,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>12</v>
@@ -689,18 +815,409 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>12</v>
       </c>
     </row>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
   <si>
     <t>Sno</t>
   </si>
@@ -241,6 +241,93 @@
   </si>
   <si>
     <t>MailReport</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
 </sst>
 </file>
@@ -617,7 +704,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -681,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -701,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -720,8 +807,8 @@
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
@@ -741,7 +828,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
@@ -761,7 +848,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
@@ -781,7 +868,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -801,7 +888,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -821,7 +908,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -838,7 +925,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>30</v>
@@ -855,7 +942,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>36</v>
@@ -872,7 +959,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
@@ -889,7 +976,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>38</v>
@@ -906,7 +993,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>39</v>
@@ -923,7 +1010,7 @@
         <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>44</v>
@@ -940,7 +1027,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>46</v>
@@ -957,7 +1044,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>45</v>
@@ -974,7 +1061,7 @@
         <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>50</v>
@@ -991,7 +1078,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
@@ -1008,7 +1095,7 @@
         <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>53</v>
@@ -1025,7 +1112,7 @@
         <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>55</v>
@@ -1042,7 +1129,7 @@
         <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>57</v>
@@ -1059,7 +1146,7 @@
         <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>59</v>
@@ -1076,7 +1163,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>61</v>
@@ -1093,7 +1180,7 @@
         <v>66</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>63</v>
@@ -1110,7 +1197,7 @@
         <v>65</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>64</v>
@@ -1127,7 +1214,7 @@
         <v>67</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>68</v>
@@ -1144,7 +1231,7 @@
         <v>69</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>17</v>
@@ -1161,7 +1248,7 @@
         <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>14</v>
@@ -1178,7 +1265,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>16</v>
@@ -1195,7 +1282,7 @@
         <v>72</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>71</v>
@@ -1212,7 +1299,7 @@
         <v>74</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>73</v>
@@ -1231,7 +1318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -704,7 +704,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E33"/>
+      <selection activeCell="E2" sqref="E2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>36</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,7 +917,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>48</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
         <v>51</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>54</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,7 +1019,7 @@
         <v>57</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>60</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
         <v>63</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
         <v>66</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>69</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
         <v>72</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
         <v>75</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>78</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1155,7 +1155,7 @@
         <v>81</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1172,7 +1172,7 @@
         <v>84</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1189,7 +1189,7 @@
         <v>87</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>90</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,7 +1223,7 @@
         <v>93</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>96</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
